--- a/DataGenerated/TableData.xlsx
+++ b/DataGenerated/TableData.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personalmusaib\SpringBoardFoundation\MifosDocuments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="38400" windowHeight="19520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="m_client" sheetId="1" r:id="rId1"/>
     <sheet name="m_loan" sheetId="2" r:id="rId2"/>
     <sheet name="m_loan_transaction" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="Z_2E3BB25C_D982_426F_9D86_F292F8A8CC1C_.wvu.Cols" localSheetId="2" hidden="1">m_loan_transaction!$M:$O</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <customWorkbookViews>
+    <customWorkbookView name="reehan.a - Personal View" guid="{2E3BB25C-D982-426F-9D86-F292F8A8CC1C}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
+    <customWorkbookView name="Musaib - Personal View" guid="{E2746299-081B-4677-8B1A-4277B479873B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="3"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -146,9 +158,6 @@
     <t>"000000001"</t>
   </si>
   <si>
-    <t>INR</t>
-  </si>
-  <si>
     <t>client_id</t>
   </si>
   <si>
@@ -491,19 +500,127 @@
     <t>"000000005"</t>
   </si>
   <si>
-    <t>Mudassar</t>
-  </si>
-  <si>
-    <t>Reehan</t>
-  </si>
-  <si>
-    <t>Mujahid</t>
-  </si>
-  <si>
-    <t>Musaib</t>
-  </si>
-  <si>
-    <t>Umar</t>
+    <t>"Mudassar"</t>
+  </si>
+  <si>
+    <t>"Reehan"</t>
+  </si>
+  <si>
+    <t>"Mujahid"</t>
+  </si>
+  <si>
+    <t>"Musaib"</t>
+  </si>
+  <si>
+    <t>"Umar"</t>
+  </si>
+  <si>
+    <t>"9999999991"</t>
+  </si>
+  <si>
+    <t>"9999999992"</t>
+  </si>
+  <si>
+    <t>"9999999993"</t>
+  </si>
+  <si>
+    <t>"9999999994"</t>
+  </si>
+  <si>
+    <t>"9999999995"</t>
+  </si>
+  <si>
+    <t>"02-10-2017"</t>
+  </si>
+  <si>
+    <t>"10-09-2017"</t>
+  </si>
+  <si>
+    <t>"15-09-2017"</t>
+  </si>
+  <si>
+    <t>"22-07-2017"</t>
+  </si>
+  <si>
+    <t>"07-08-2017"</t>
+  </si>
+  <si>
+    <t>"2017-10-02"</t>
+  </si>
+  <si>
+    <t>"2017-09-10"</t>
+  </si>
+  <si>
+    <t>"2017-09-15"</t>
+  </si>
+  <si>
+    <t>"2017-07-22"</t>
+  </si>
+  <si>
+    <t>"2017-08-07"</t>
+  </si>
+  <si>
+    <t>"1982-04-29"</t>
+  </si>
+  <si>
+    <t>"1981-10-10"</t>
+  </si>
+  <si>
+    <t>"1988-09-05"</t>
+  </si>
+  <si>
+    <t>"1980-05-19"</t>
+  </si>
+  <si>
+    <t>"1985-04-30"</t>
+  </si>
+  <si>
+    <t>"2017-10-04"</t>
+  </si>
+  <si>
+    <t>"2017-09-20"</t>
+  </si>
+  <si>
+    <t>"2017-09-25"</t>
+  </si>
+  <si>
+    <t>"2017-07-30"</t>
+  </si>
+  <si>
+    <t>"2017-08-10"</t>
+  </si>
+  <si>
+    <t>"2018-08-05"</t>
+  </si>
+  <si>
+    <t>"2018-07-21"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please calculate this and the next column based on disbursment </t>
+  </si>
+  <si>
+    <t>date. We have fixed the frequency to daily. Please fill these dates accordingly.</t>
+  </si>
+  <si>
+    <t>"INR"</t>
+  </si>
+  <si>
+    <t>"2017-10-05"</t>
+  </si>
+  <si>
+    <t>"2017-10-05  10:20:29"</t>
+  </si>
+  <si>
+    <t>"2017-10-06"</t>
+  </si>
+  <si>
+    <t>"2017-10-05  11:20:29"</t>
+  </si>
+  <si>
+    <t>"2017-10-05  13:20:29"</t>
+  </si>
+  <si>
+    <t>"2017-10-06  10:20:29"</t>
   </si>
 </sst>
 </file>
@@ -642,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -660,9 +777,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="81">
@@ -750,6 +864,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1040,52 +1162,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.1640625" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1330,7 @@
       </c>
       <c r="AO1" s="3"/>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1218,51 +1340,50 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="D2" s="3">
         <v>300</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5">
-        <v>43010</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43010</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3">
-        <v>9999999991</v>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="5">
-        <v>30070</v>
+      <c r="R2" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="5">
-        <v>43010</v>
+      <c r="X2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
       </c>
       <c r="Z2" s="3">
         <v>1</v>
       </c>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
@@ -1276,187 +1397,205 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
-      <c r="AO2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
         <v>300</v>
       </c>
-      <c r="G3" s="7">
-        <v>42988</v>
-      </c>
-      <c r="H3" s="7">
-        <v>42988</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="3">
-        <v>9999999992</v>
-      </c>
-      <c r="R3" s="7">
-        <v>29869</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>42988</v>
+        <v>156</v>
+      </c>
+      <c r="O3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
       </c>
       <c r="Z3" s="3">
         <v>1</v>
       </c>
-      <c r="AA3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3">
         <v>300</v>
       </c>
-      <c r="G4" s="7">
-        <v>42993</v>
-      </c>
-      <c r="H4" s="7">
-        <v>42993</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P4" s="3">
-        <v>9999999993</v>
-      </c>
-      <c r="R4" s="7">
-        <v>32391</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>42993</v>
+        <v>157</v>
+      </c>
+      <c r="O4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
         <v>1</v>
       </c>
-      <c r="AA4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="D5" s="3">
         <v>300</v>
       </c>
-      <c r="G5" s="7">
-        <v>42938</v>
-      </c>
-      <c r="H5" s="7">
-        <v>42938</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
-      </c>
-      <c r="N5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P5" s="3">
-        <v>9999999994</v>
-      </c>
-      <c r="R5" s="7">
-        <v>29360</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>42938</v>
+        <v>158</v>
+      </c>
+      <c r="O5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
       </c>
       <c r="Z5" s="3">
         <v>1</v>
       </c>
-      <c r="AA5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="3">
         <v>300</v>
       </c>
-      <c r="G6" s="7">
-        <v>42954</v>
-      </c>
-      <c r="H6" s="7">
-        <v>42954</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" t="s">
-        <v>160</v>
-      </c>
-      <c r="P6" s="3">
-        <v>9999999995</v>
-      </c>
-      <c r="R6" s="7">
-        <v>31167</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>42954</v>
+        <v>159</v>
+      </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
       </c>
       <c r="Z6" s="3">
         <v>1</v>
       </c>
-      <c r="AA6" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{2E3BB25C-D982-426F-9D86-F292F8A8CC1C}">
+      <selection activeCell="R2" sqref="R2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{E2746299-081B-4677-8B1A-4277B479873B}" topLeftCell="O2">
+      <selection activeCell="Y4" sqref="Y4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1471,117 +1610,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="26" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="27" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="23" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="28" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="32" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="6.6640625" customWidth="1"/>
-    <col min="94" max="94" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="6.7109375" customWidth="1"/>
+    <col min="94" max="94" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="21" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="19" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.5" customWidth="1"/>
+    <col min="99" max="99" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,106 +1731,106 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>61</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>71</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>74</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>75</v>
       </c>
       <c r="AL1" t="s">
         <v>23</v>
@@ -1700,31 +1839,31 @@
         <v>24</v>
       </c>
       <c r="AN1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>78</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>81</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>82</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>83</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>84</v>
       </c>
       <c r="AW1" t="s">
         <v>20</v>
@@ -1733,88 +1872,88 @@
         <v>26</v>
       </c>
       <c r="AY1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>85</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>86</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>87</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>88</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>89</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>90</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>91</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>92</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>94</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>96</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>97</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>100</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>101</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>102</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>103</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>104</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>105</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>106</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>107</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>108</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>109</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>110</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>111</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>112</v>
       </c>
       <c r="CA1" t="s">
         <v>32</v>
@@ -1823,73 +1962,73 @@
         <v>33</v>
       </c>
       <c r="CC1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD1" t="s">
         <v>113</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>114</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>115</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>116</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>117</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>118</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>119</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>120</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>121</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>122</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>123</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>124</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>125</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>126</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>127</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>128</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>129</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>130</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>131</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>132</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>133</v>
       </c>
-      <c r="CX1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:102">
+    </row>
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1914,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="M2" s="1">
         <v>2</v>
@@ -1962,9 +2101,11 @@
         <v>1</v>
       </c>
       <c r="AD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
       <c r="AF2" s="1">
         <v>0</v>
       </c>
@@ -1977,34 +2118,34 @@
       <c r="AK2" s="1">
         <v>1</v>
       </c>
-      <c r="AL2" s="2">
-        <v>43012</v>
+      <c r="AL2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="AM2" s="1">
         <v>1</v>
       </c>
-      <c r="AN2" s="2">
-        <v>43012</v>
+      <c r="AN2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="AO2" s="1">
         <v>1</v>
       </c>
-      <c r="AP2" s="2">
-        <v>43012</v>
+      <c r="AP2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
-      <c r="AS2" s="9">
-        <v>43013</v>
+      <c r="AS2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="AT2" s="1">
         <v>1</v>
       </c>
-      <c r="AU2" s="2">
-        <v>43317</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>43317</v>
+      <c r="AU2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
@@ -2129,12 +2270,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3">
@@ -2142,19 +2283,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K3" s="8">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -2202,9 +2343,11 @@
         <v>1</v>
       </c>
       <c r="AD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
       <c r="AF3" s="1">
         <v>0</v>
       </c>
@@ -2217,34 +2360,34 @@
       <c r="AK3" s="1">
         <v>1</v>
       </c>
-      <c r="AL3" s="7">
-        <v>42998</v>
+      <c r="AL3" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="AM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>42998</v>
+        <v>1</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="AO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="7">
-        <v>42998</v>
+        <v>1</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="10">
-        <v>42999</v>
+      <c r="AS3" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="AT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>43302</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>43302</v>
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
@@ -2369,27 +2512,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>300</v>
       </c>
       <c r="K4" s="8">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -2434,9 +2577,11 @@
         <v>1</v>
       </c>
       <c r="AD4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
       <c r="AF4" s="1">
         <v>0</v>
       </c>
@@ -2449,35 +2594,31 @@
       <c r="AK4" s="1">
         <v>1</v>
       </c>
-      <c r="AL4" s="7">
-        <v>43003</v>
+      <c r="AL4" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="AM4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>43003</v>
+        <v>1</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="AO4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>43003</v>
+        <v>1</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="10">
-        <v>43004</v>
+      <c r="AS4" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="AT4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>43307</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>43307</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1">
@@ -2601,27 +2742,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>600</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>300</v>
       </c>
       <c r="K5" s="8">
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -2666,9 +2807,11 @@
         <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
       <c r="AF5" s="1">
         <v>0</v>
       </c>
@@ -2681,35 +2824,31 @@
       <c r="AK5" s="1">
         <v>1</v>
       </c>
-      <c r="AL5" s="7">
-        <v>42946</v>
+      <c r="AL5" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="AM5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>42946</v>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="AO5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="7">
-        <v>42946</v>
+        <v>1</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="10">
-        <v>42946</v>
+      <c r="AS5" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="AT5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>43250</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>43250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1">
@@ -2833,27 +2972,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>700</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>300</v>
       </c>
       <c r="K6" s="8">
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -2898,9 +3037,11 @@
         <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
       <c r="AF6" s="1">
         <v>0</v>
       </c>
@@ -2913,35 +3054,31 @@
       <c r="AK6" s="1">
         <v>1</v>
       </c>
-      <c r="AL6" s="7">
-        <v>42957</v>
+      <c r="AL6" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="AM6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>42957</v>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="AO6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>42957</v>
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
-      <c r="AS6" s="10">
-        <v>42958</v>
+      <c r="AS6" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="AT6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>43256</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>43256</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1">
@@ -3065,25 +3202,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:102">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="K7" s="8"/>
     </row>
-    <row r="10" spans="1:102">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="AU9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AL10" s="5"/>
-    </row>
-    <row r="11" spans="1:102">
+      <c r="AU10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:102">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AL12" s="7"/>
     </row>
-    <row r="13" spans="1:102">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:102">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AL14" s="7"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{2E3BB25C-D982-426F-9D86-F292F8A8CC1C}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{E2746299-081B-4677-8B1A-4277B479873B}">
+      <selection activeCell="L2" sqref="L2:L6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3098,97 +3254,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>140</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>142</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>145</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>146</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>148</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>149</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>150</v>
       </c>
-      <c r="T1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3206,16 +3360,14 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>43013</v>
+      <c r="H2" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="I2" s="1">
         <v>1000</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -3223,20 +3375,20 @@
       <c r="P2" s="1">
         <v>1000</v>
       </c>
-      <c r="Q2" s="2">
-        <v>43013</v>
+      <c r="Q2" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="6">
-        <v>43013.430891203701</v>
+      <c r="S2" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3254,35 +3406,33 @@
       <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="2">
-        <v>43013</v>
+      <c r="H3" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="2">
-        <v>43013</v>
+      <c r="Q3" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
-      <c r="S3" s="6">
-        <v>43013.430902777778</v>
+      <c r="S3" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3300,8 +3450,8 @@
       <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
-        <v>43013</v>
+      <c r="H4" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -3315,20 +3465,20 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="2">
-        <v>43013</v>
+      <c r="Q4" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="6">
-        <v>43013.430902777778</v>
+      <c r="S4" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3346,8 +3496,8 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>43013</v>
+      <c r="H5" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -3355,9 +3505,7 @@
       <c r="J5" s="1">
         <v>100</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3365,20 +3513,20 @@
       <c r="P5" s="1">
         <v>900</v>
       </c>
-      <c r="Q5" s="2">
-        <v>43013</v>
+      <c r="Q5" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="6">
-        <v>43013.431504629632</v>
+      <c r="S5" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3395,32 +3543,27 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
-        <v>43014</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="P6">
         <v>800</v>
       </c>
-      <c r="Q6" s="2">
-        <v>43014</v>
-      </c>
-      <c r="S6" s="6">
-        <v>43014.431504629632</v>
-      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6"/>
       <c r="T6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3437,32 +3580,27 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
-        <v>43015</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1">
         <v>100</v>
       </c>
-      <c r="J7">
-        <v>300</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="P7" s="1">
         <v>700</v>
       </c>
-      <c r="Q7" s="2">
-        <v>43015</v>
-      </c>
-      <c r="S7" s="6">
-        <v>43015.431504629632</v>
-      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6"/>
       <c r="T7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3479,32 +3617,27 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <v>43016</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1">
         <v>100</v>
       </c>
       <c r="J8" s="1">
-        <v>400</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="P8" s="1">
         <v>600</v>
       </c>
-      <c r="Q8" s="2">
-        <v>43016</v>
-      </c>
-      <c r="S8" s="6">
-        <v>43016.431504629632</v>
-      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6"/>
       <c r="T8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3521,32 +3654,27 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>43017</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="1">
         <v>100</v>
       </c>
       <c r="J9" s="1">
-        <v>500</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K9" s="1"/>
       <c r="P9" s="1">
         <v>500</v>
       </c>
-      <c r="Q9" s="2">
-        <v>43017</v>
-      </c>
-      <c r="S9" s="6">
-        <v>43017.431504629632</v>
-      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6"/>
       <c r="T9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3563,32 +3691,27 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>43018</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1">
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>600</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K10" s="1"/>
       <c r="P10" s="1">
         <v>400</v>
       </c>
-      <c r="Q10" s="2">
-        <v>43018</v>
-      </c>
-      <c r="S10" s="6">
-        <v>43018.431504629632</v>
-      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6"/>
       <c r="T10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3605,32 +3728,27 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
-        <v>43019</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="1">
         <v>100</v>
       </c>
       <c r="J11" s="1">
-        <v>700</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K11" s="1"/>
       <c r="P11" s="1">
         <v>300</v>
       </c>
-      <c r="Q11" s="2">
-        <v>43019</v>
-      </c>
-      <c r="S11" s="6">
-        <v>43019.431504629632</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6"/>
       <c r="T11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3647,32 +3765,27 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="2">
-        <v>43020</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="1">
         <v>100</v>
       </c>
       <c r="J12" s="1">
-        <v>800</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K12" s="1"/>
       <c r="P12" s="1">
         <v>200</v>
       </c>
-      <c r="Q12" s="2">
-        <v>43020</v>
-      </c>
-      <c r="S12" s="6">
-        <v>43020.431504629632</v>
-      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6"/>
       <c r="T12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3689,32 +3802,27 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="2">
-        <v>43021</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1">
         <v>100</v>
       </c>
       <c r="J13" s="1">
-        <v>900</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K13" s="1"/>
       <c r="P13" s="1">
         <v>100</v>
       </c>
-      <c r="Q13" s="2">
-        <v>43021</v>
-      </c>
-      <c r="S13" s="6">
-        <v>43021.431504629632</v>
-      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6"/>
       <c r="T13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3731,32 +3839,27 @@
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="2">
-        <v>43022</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="1">
         <v>100</v>
       </c>
       <c r="J14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K14" s="1"/>
       <c r="P14" s="1">
         <v>0</v>
       </c>
-      <c r="Q14" s="2">
-        <v>43022</v>
-      </c>
-      <c r="S14" s="6">
-        <v>43022.431504629632</v>
-      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6"/>
       <c r="T14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3764,38 +3867,33 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="10">
-        <v>42999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="1">
         <v>2000</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
+      <c r="K15" s="1"/>
       <c r="P15" s="1">
         <v>2000</v>
       </c>
-      <c r="Q15" s="10">
-        <v>42999</v>
-      </c>
-      <c r="S15" s="6">
-        <v>42999.474328703705</v>
-      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6"/>
       <c r="T15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3803,35 +3901,30 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="10">
-        <v>42999</v>
-      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>42999</v>
-      </c>
-      <c r="S16" s="6">
-        <v>42999.474328703705</v>
-      </c>
+      <c r="K16" s="1"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6"/>
       <c r="T16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3839,35 +3932,32 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="10">
-        <v>42999</v>
-      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="10">
-        <v>42999</v>
-      </c>
-      <c r="S17" s="6">
-        <v>42999.474328703705</v>
-      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6"/>
       <c r="T17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3875,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3883,32 +3973,27 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="10">
-        <v>43000</v>
-      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="1">
         <v>200</v>
       </c>
       <c r="J18">
         <v>200</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="P18">
         <v>1800</v>
       </c>
-      <c r="Q18" s="10">
-        <v>43000</v>
-      </c>
-      <c r="S18" s="6">
-        <v>43000.474328703705</v>
-      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6"/>
       <c r="T18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3916,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3924,32 +4009,27 @@
       <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="10">
-        <v>43001</v>
-      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="1">
         <v>200</v>
       </c>
-      <c r="J19">
-        <v>400</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
+      <c r="J19" s="1">
+        <v>200</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="P19">
         <v>1600</v>
       </c>
-      <c r="Q19" s="10">
-        <v>43001</v>
-      </c>
-      <c r="S19" s="6">
-        <v>43001.474328703705</v>
-      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6"/>
       <c r="T19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3957,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3965,32 +4045,27 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="10">
-        <v>43002</v>
-      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="1">
         <v>200</v>
       </c>
-      <c r="J20">
-        <v>600</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
+      <c r="J20" s="1">
+        <v>200</v>
+      </c>
+      <c r="K20" s="1"/>
       <c r="P20">
         <v>1400</v>
       </c>
-      <c r="Q20" s="10">
-        <v>43002</v>
-      </c>
-      <c r="S20" s="6">
-        <v>43002.474328703705</v>
-      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6"/>
       <c r="T20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3998,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -4006,32 +4081,27 @@
       <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="10">
-        <v>43003</v>
-      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="1">
         <v>200</v>
       </c>
-      <c r="J21">
-        <v>800</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
+      <c r="J21" s="1">
+        <v>200</v>
+      </c>
+      <c r="K21" s="1"/>
       <c r="P21">
         <v>1200</v>
       </c>
-      <c r="Q21" s="10">
-        <v>43003</v>
-      </c>
-      <c r="S21" s="6">
-        <v>43003.474328703705</v>
-      </c>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6"/>
       <c r="T21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4039,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -4047,32 +4117,27 @@
       <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="10">
-        <v>43004</v>
-      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="1">
         <v>200</v>
       </c>
-      <c r="J22">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
+      <c r="J22" s="1">
+        <v>200</v>
+      </c>
+      <c r="K22" s="1"/>
       <c r="P22">
         <v>1000</v>
       </c>
-      <c r="Q22" s="10">
-        <v>43004</v>
-      </c>
-      <c r="S22" s="6">
-        <v>43004.474328703705</v>
-      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6"/>
       <c r="T22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4080,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -4088,32 +4153,27 @@
       <c r="G23" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="10">
-        <v>43005</v>
-      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="1">
         <v>200</v>
       </c>
-      <c r="J23">
-        <v>1200</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
+      <c r="J23" s="1">
+        <v>200</v>
+      </c>
+      <c r="K23" s="1"/>
       <c r="P23">
         <v>800</v>
       </c>
-      <c r="Q23" s="10">
-        <v>43005</v>
-      </c>
-      <c r="S23" s="6">
-        <v>43005.474328703705</v>
-      </c>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6"/>
       <c r="T23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4121,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -4129,32 +4189,27 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="10">
-        <v>43006</v>
-      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="1">
         <v>200</v>
       </c>
-      <c r="J24">
-        <v>1400</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
+      <c r="J24" s="1">
+        <v>200</v>
+      </c>
+      <c r="K24" s="1"/>
       <c r="P24">
         <v>600</v>
       </c>
-      <c r="Q24" s="10">
-        <v>43006</v>
-      </c>
-      <c r="S24" s="6">
-        <v>43006.474328703705</v>
-      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6"/>
       <c r="T24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4162,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -4170,32 +4225,27 @@
       <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="10">
-        <v>43007</v>
-      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="1">
         <v>200</v>
       </c>
-      <c r="J25">
-        <v>1600</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
+      <c r="J25" s="1">
+        <v>200</v>
+      </c>
+      <c r="K25" s="1"/>
       <c r="P25">
         <v>400</v>
       </c>
-      <c r="Q25" s="10">
-        <v>43007</v>
-      </c>
-      <c r="S25" s="6">
-        <v>43007.474328703705</v>
-      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6"/>
       <c r="T25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4203,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -4211,32 +4261,27 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="10">
-        <v>43008</v>
-      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="1">
         <v>200</v>
       </c>
-      <c r="J26">
-        <v>1800</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
+      <c r="J26" s="1">
+        <v>200</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="P26">
         <v>200</v>
       </c>
-      <c r="Q26" s="10">
-        <v>43008</v>
-      </c>
-      <c r="S26" s="6">
-        <v>43008.474328703705</v>
-      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6"/>
       <c r="T26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4244,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -4252,32 +4297,27 @@
       <c r="G27" s="1">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
-        <v>43009</v>
-      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="1">
         <v>200</v>
       </c>
-      <c r="J27">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
+      <c r="J27" s="1">
+        <v>200</v>
+      </c>
+      <c r="K27" s="1"/>
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27" s="10">
-        <v>43009</v>
-      </c>
-      <c r="S27" s="6">
-        <v>43009.474328703705</v>
-      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6"/>
       <c r="T27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4285,37 +4325,32 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
-      </c>
-      <c r="H28" s="10">
-        <v>43004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="1">
         <v>2500</v>
       </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="P28">
         <v>2500</v>
       </c>
-      <c r="Q28" s="10">
-        <v>43004</v>
-      </c>
-      <c r="S28" s="6">
-        <v>43004.489953703705</v>
-      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6"/>
       <c r="T28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -4331,26 +4366,21 @@
       <c r="G29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" s="10">
-        <v>43004</v>
-      </c>
+      <c r="H29" s="9"/>
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>43004</v>
-      </c>
-      <c r="S29" s="6">
-        <v>43004.489953703705</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6"/>
       <c r="T29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4358,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -4366,26 +4396,23 @@
       <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30" s="10">
-        <v>43004</v>
-      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="Q30" s="10">
-        <v>43004</v>
-      </c>
-      <c r="S30" s="6">
-        <v>43004.489953703705</v>
-      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6"/>
       <c r="T30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4393,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -4401,32 +4428,27 @@
       <c r="G31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="10">
-        <v>43005</v>
-      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="1">
         <v>250</v>
       </c>
       <c r="J31" s="1">
         <v>250</v>
       </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="P31" s="1">
         <v>2250</v>
       </c>
-      <c r="Q31" s="10">
-        <v>43005</v>
-      </c>
-      <c r="S31" s="6">
-        <v>43005.489953703705</v>
-      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6"/>
       <c r="T31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4434,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -4442,32 +4464,27 @@
       <c r="G32" s="1">
         <v>2</v>
       </c>
-      <c r="H32" s="10">
-        <v>43006</v>
-      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="1">
         <v>250</v>
       </c>
-      <c r="J32">
-        <v>500</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
+      <c r="J32" s="1">
+        <v>250</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="P32" s="1">
         <v>2000</v>
       </c>
-      <c r="Q32" s="10">
-        <v>43006</v>
-      </c>
-      <c r="S32" s="6">
-        <v>43006.489953703705</v>
-      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6"/>
       <c r="T32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4475,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -4483,32 +4500,27 @@
       <c r="G33" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="10">
-        <v>43007</v>
-      </c>
+      <c r="H33" s="9"/>
       <c r="I33" s="1">
         <v>250</v>
       </c>
       <c r="J33" s="1">
-        <v>750</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K33" s="1"/>
       <c r="P33" s="1">
         <v>1750</v>
       </c>
-      <c r="Q33" s="10">
-        <v>43007</v>
-      </c>
-      <c r="S33" s="6">
-        <v>43007.489953703705</v>
-      </c>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6"/>
       <c r="T33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -4524,32 +4536,27 @@
       <c r="G34" s="1">
         <v>2</v>
       </c>
-      <c r="H34" s="10">
-        <v>43008</v>
-      </c>
+      <c r="H34" s="9"/>
       <c r="I34" s="1">
         <v>250</v>
       </c>
-      <c r="J34">
-        <v>1000</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
+      <c r="J34" s="1">
+        <v>250</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="P34" s="1">
         <v>1500</v>
       </c>
-      <c r="Q34" s="10">
-        <v>43008</v>
-      </c>
-      <c r="S34" s="6">
-        <v>43008.489953703705</v>
-      </c>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6"/>
       <c r="T34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -4565,32 +4572,27 @@
       <c r="G35" s="1">
         <v>2</v>
       </c>
-      <c r="H35" s="10">
-        <v>43009</v>
-      </c>
+      <c r="H35" s="9"/>
       <c r="I35" s="1">
         <v>250</v>
       </c>
       <c r="J35" s="1">
-        <v>1250</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="P35" s="1">
         <v>1250</v>
       </c>
-      <c r="Q35" s="10">
-        <v>43009</v>
-      </c>
-      <c r="S35" s="6">
-        <v>43009.489953703705</v>
-      </c>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6"/>
       <c r="T35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -4606,32 +4608,27 @@
       <c r="G36" s="1">
         <v>2</v>
       </c>
-      <c r="H36" s="10">
-        <v>43010</v>
-      </c>
+      <c r="H36" s="9"/>
       <c r="I36" s="1">
         <v>250</v>
       </c>
-      <c r="J36">
-        <v>1500</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
+      <c r="J36" s="1">
+        <v>250</v>
+      </c>
+      <c r="K36" s="1"/>
       <c r="P36" s="1">
         <v>1000</v>
       </c>
-      <c r="Q36" s="10">
-        <v>43010</v>
-      </c>
-      <c r="S36" s="6">
-        <v>43010.489953703705</v>
-      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6"/>
       <c r="T36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4639,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -4647,32 +4644,27 @@
       <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="H37" s="10">
-        <v>43011</v>
-      </c>
+      <c r="H37" s="9"/>
       <c r="I37" s="1">
         <v>250</v>
       </c>
       <c r="J37" s="1">
-        <v>1750</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K37" s="1"/>
       <c r="P37" s="1">
         <v>750</v>
       </c>
-      <c r="Q37" s="10">
-        <v>43011</v>
-      </c>
-      <c r="S37" s="6">
-        <v>43011.489953703705</v>
-      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6"/>
       <c r="T37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4680,7 +4672,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -4688,32 +4680,27 @@
       <c r="G38" s="1">
         <v>2</v>
       </c>
-      <c r="H38" s="10">
-        <v>43012</v>
-      </c>
+      <c r="H38" s="9"/>
       <c r="I38" s="1">
         <v>250</v>
       </c>
-      <c r="J38">
-        <v>2000</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
+      <c r="J38" s="1">
+        <v>250</v>
+      </c>
+      <c r="K38" s="1"/>
       <c r="P38" s="1">
         <v>500</v>
       </c>
-      <c r="Q38" s="10">
-        <v>43012</v>
-      </c>
-      <c r="S38" s="6">
-        <v>43012.489953703705</v>
-      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="6"/>
       <c r="T38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4721,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -4729,32 +4716,27 @@
       <c r="G39" s="1">
         <v>2</v>
       </c>
-      <c r="H39" s="10">
-        <v>43013</v>
-      </c>
+      <c r="H39" s="9"/>
       <c r="I39" s="1">
         <v>250</v>
       </c>
       <c r="J39" s="1">
-        <v>2250</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K39" s="1"/>
       <c r="P39" s="1">
         <v>250</v>
       </c>
-      <c r="Q39" s="10">
-        <v>43013</v>
-      </c>
-      <c r="S39" s="6">
-        <v>43013.489953703705</v>
-      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="6"/>
       <c r="T39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4762,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -4770,32 +4752,27 @@
       <c r="G40" s="1">
         <v>2</v>
       </c>
-      <c r="H40" s="10">
-        <v>43014</v>
-      </c>
+      <c r="H40" s="9"/>
       <c r="I40" s="1">
         <v>250</v>
       </c>
-      <c r="J40">
-        <v>2500</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
+      <c r="J40" s="1">
+        <v>250</v>
+      </c>
+      <c r="K40" s="1"/>
       <c r="P40" s="1">
         <v>0</v>
       </c>
-      <c r="Q40" s="10">
-        <v>43014</v>
-      </c>
-      <c r="S40" s="6">
-        <v>43014.489953703705</v>
-      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="6"/>
       <c r="T40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4803,37 +4780,32 @@
         <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
-      </c>
-      <c r="H41" s="10">
-        <v>42946</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H41" s="9"/>
       <c r="I41" s="1">
         <v>3000</v>
       </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
+      <c r="K41" s="1"/>
       <c r="P41" s="1">
         <v>3000</v>
       </c>
-      <c r="Q41" s="10">
-        <v>42946</v>
-      </c>
-      <c r="S41" s="6">
-        <v>42946.53162037037</v>
-      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="6"/>
       <c r="T41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4841,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -4849,26 +4821,21 @@
       <c r="G42" s="1">
         <v>10</v>
       </c>
-      <c r="H42" s="10">
-        <v>42946</v>
-      </c>
+      <c r="H42" s="9"/>
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>42946</v>
-      </c>
-      <c r="S42" s="6">
-        <v>42946.53162037037</v>
-      </c>
+      <c r="K42" s="1"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="6"/>
       <c r="T42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4876,7 +4843,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -4884,26 +4851,23 @@
       <c r="G43" s="1">
         <v>10</v>
       </c>
-      <c r="H43" s="10">
-        <v>42946</v>
-      </c>
+      <c r="H43" s="9"/>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
       </c>
-      <c r="Q43" s="10">
-        <v>42946</v>
-      </c>
-      <c r="S43" s="6">
-        <v>42946.53162037037</v>
-      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="6"/>
       <c r="T43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4911,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -4919,32 +4883,27 @@
       <c r="G44" s="1">
         <v>2</v>
       </c>
-      <c r="H44" s="10">
-        <v>42947</v>
-      </c>
+      <c r="H44" s="9"/>
       <c r="I44" s="1">
         <v>300</v>
       </c>
       <c r="J44" s="1">
         <v>300</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
+      <c r="K44" s="1"/>
       <c r="P44">
         <v>2700</v>
       </c>
-      <c r="Q44" s="10">
-        <v>42947</v>
-      </c>
-      <c r="S44" s="6">
-        <v>42947.531620312497</v>
-      </c>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6"/>
       <c r="T44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4952,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -4960,32 +4919,27 @@
       <c r="G45" s="1">
         <v>2</v>
       </c>
-      <c r="H45" s="10">
-        <v>42948</v>
-      </c>
+      <c r="H45" s="9"/>
       <c r="I45" s="1">
         <v>300</v>
       </c>
       <c r="J45" s="1">
-        <v>600</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K45" s="1"/>
       <c r="P45">
         <v>2400</v>
       </c>
-      <c r="Q45" s="10">
-        <v>42948</v>
-      </c>
-      <c r="S45" s="6">
-        <v>42948.531620312497</v>
-      </c>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="6"/>
       <c r="T45" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4993,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -5001,32 +4955,27 @@
       <c r="G46" s="1">
         <v>2</v>
       </c>
-      <c r="H46" s="10">
-        <v>42949</v>
-      </c>
+      <c r="H46" s="9"/>
       <c r="I46" s="1">
         <v>300</v>
       </c>
       <c r="J46" s="1">
-        <v>900</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K46" s="1"/>
       <c r="P46">
         <v>2100</v>
       </c>
-      <c r="Q46" s="10">
-        <v>42949</v>
-      </c>
-      <c r="S46" s="6">
-        <v>42949.531620312497</v>
-      </c>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="6"/>
       <c r="T46" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5034,7 +4983,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -5042,32 +4991,27 @@
       <c r="G47" s="1">
         <v>2</v>
       </c>
-      <c r="H47" s="10">
-        <v>42950</v>
-      </c>
+      <c r="H47" s="9"/>
       <c r="I47" s="1">
         <v>300</v>
       </c>
       <c r="J47" s="1">
-        <v>1200</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K47" s="1"/>
       <c r="P47">
         <v>1800</v>
       </c>
-      <c r="Q47" s="10">
-        <v>42950</v>
-      </c>
-      <c r="S47" s="6">
-        <v>42950.531620312497</v>
-      </c>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="6"/>
       <c r="T47" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5075,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -5083,32 +5027,27 @@
       <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="10">
-        <v>42951</v>
-      </c>
+      <c r="H48" s="9"/>
       <c r="I48" s="1">
         <v>300</v>
       </c>
       <c r="J48" s="1">
-        <v>1500</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K48" s="1"/>
       <c r="P48">
         <v>1500</v>
       </c>
-      <c r="Q48" s="10">
-        <v>42951</v>
-      </c>
-      <c r="S48" s="6">
-        <v>42951.531620312497</v>
-      </c>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="6"/>
       <c r="T48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5116,7 +5055,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -5124,32 +5063,27 @@
       <c r="G49" s="1">
         <v>2</v>
       </c>
-      <c r="H49" s="10">
-        <v>42952</v>
-      </c>
+      <c r="H49" s="9"/>
       <c r="I49" s="1">
         <v>300</v>
       </c>
       <c r="J49" s="1">
-        <v>1800</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K49" s="1"/>
       <c r="P49">
         <v>1200</v>
       </c>
-      <c r="Q49" s="10">
-        <v>42952</v>
-      </c>
-      <c r="S49" s="6">
-        <v>42952.531620312497</v>
-      </c>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6"/>
       <c r="T49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5157,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -5165,32 +5099,27 @@
       <c r="G50" s="1">
         <v>2</v>
       </c>
-      <c r="H50" s="10">
-        <v>42953</v>
-      </c>
+      <c r="H50" s="9"/>
       <c r="I50" s="1">
         <v>300</v>
       </c>
       <c r="J50" s="1">
-        <v>2100</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K50" s="1"/>
       <c r="P50">
         <v>900</v>
       </c>
-      <c r="Q50" s="10">
-        <v>42953</v>
-      </c>
-      <c r="S50" s="6">
-        <v>42953.531620312497</v>
-      </c>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="6"/>
       <c r="T50" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5198,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -5206,32 +5135,27 @@
       <c r="G51" s="1">
         <v>2</v>
       </c>
-      <c r="H51" s="10">
-        <v>42954</v>
-      </c>
+      <c r="H51" s="9"/>
       <c r="I51" s="1">
         <v>300</v>
       </c>
       <c r="J51" s="1">
-        <v>2400</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K51" s="1"/>
       <c r="P51">
         <v>600</v>
       </c>
-      <c r="Q51" s="10">
-        <v>42954</v>
-      </c>
-      <c r="S51" s="6">
-        <v>42954.531620312497</v>
-      </c>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="6"/>
       <c r="T51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5239,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -5247,32 +5171,27 @@
       <c r="G52" s="1">
         <v>2</v>
       </c>
-      <c r="H52" s="10">
-        <v>42955</v>
-      </c>
+      <c r="H52" s="9"/>
       <c r="I52" s="1">
         <v>300</v>
       </c>
       <c r="J52" s="1">
-        <v>2700</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K52" s="1"/>
       <c r="P52">
         <v>300</v>
       </c>
-      <c r="Q52" s="10">
-        <v>42955</v>
-      </c>
-      <c r="S52" s="6">
-        <v>42955.531620312497</v>
-      </c>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="6"/>
       <c r="T52" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5280,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -5288,32 +5207,27 @@
       <c r="G53" s="1">
         <v>2</v>
       </c>
-      <c r="H53" s="10">
-        <v>42956</v>
-      </c>
+      <c r="H53" s="9"/>
       <c r="I53" s="1">
         <v>300</v>
       </c>
       <c r="J53" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="K53" s="1"/>
       <c r="P53">
         <v>0</v>
       </c>
-      <c r="Q53" s="10">
-        <v>42956</v>
-      </c>
-      <c r="S53" s="6">
-        <v>42956.531620312497</v>
-      </c>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="6"/>
       <c r="T53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5321,37 +5235,32 @@
         <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
-      </c>
-      <c r="H54" s="10">
-        <v>42958</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H54" s="9"/>
       <c r="I54" s="1">
         <v>10000</v>
       </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
+      <c r="K54" s="1"/>
       <c r="P54">
         <v>10000</v>
       </c>
-      <c r="Q54" s="10">
-        <v>42958</v>
-      </c>
-      <c r="S54" s="6">
-        <v>42958.640879629631</v>
-      </c>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="6"/>
       <c r="T54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5359,7 +5268,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -5367,26 +5276,21 @@
       <c r="G55" s="1">
         <v>10</v>
       </c>
-      <c r="H55" s="10">
-        <v>42958</v>
-      </c>
+      <c r="H55" s="9"/>
       <c r="I55" s="1">
         <v>0</v>
       </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="10">
-        <v>42958</v>
-      </c>
-      <c r="S55" s="6">
-        <v>42958.640879629631</v>
-      </c>
+      <c r="K55" s="1"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="6"/>
       <c r="T55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5394,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -5402,26 +5306,23 @@
       <c r="G56" s="1">
         <v>10</v>
       </c>
-      <c r="H56" s="10">
-        <v>42958</v>
-      </c>
+      <c r="H56" s="9"/>
       <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
       </c>
-      <c r="Q56" s="10">
-        <v>42958</v>
-      </c>
-      <c r="S56" s="6">
-        <v>42958.640879629631</v>
-      </c>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="6"/>
       <c r="T56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5429,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -5437,32 +5338,27 @@
       <c r="G57" s="1">
         <v>2</v>
       </c>
-      <c r="H57" s="10">
-        <v>42959</v>
-      </c>
+      <c r="H57" s="9"/>
       <c r="I57" s="1">
         <v>1000</v>
       </c>
       <c r="J57" s="1">
         <v>1000</v>
       </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
+      <c r="K57" s="1"/>
       <c r="P57">
         <v>9000</v>
       </c>
-      <c r="Q57" s="10">
-        <v>42959</v>
-      </c>
-      <c r="S57" s="6">
-        <v>42959.640879629631</v>
-      </c>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="6"/>
       <c r="T57" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5470,7 +5366,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -5478,32 +5374,27 @@
       <c r="G58" s="1">
         <v>2</v>
       </c>
-      <c r="H58" s="10">
-        <v>42960</v>
-      </c>
+      <c r="H58" s="9"/>
       <c r="I58" s="1">
         <v>1000</v>
       </c>
       <c r="J58" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K58" s="1"/>
       <c r="P58">
         <v>8000</v>
       </c>
-      <c r="Q58" s="10">
-        <v>42960</v>
-      </c>
-      <c r="S58" s="6">
-        <v>42960.640879629631</v>
-      </c>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="6"/>
       <c r="T58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5511,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -5519,32 +5410,27 @@
       <c r="G59" s="1">
         <v>2</v>
       </c>
-      <c r="H59" s="10">
-        <v>42961</v>
-      </c>
+      <c r="H59" s="9"/>
       <c r="I59" s="1">
         <v>1000</v>
       </c>
       <c r="J59" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K59" s="1"/>
       <c r="P59">
         <v>7000</v>
       </c>
-      <c r="Q59" s="10">
-        <v>42961</v>
-      </c>
-      <c r="S59" s="6">
-        <v>42961.640879629631</v>
-      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="6"/>
       <c r="T59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5552,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -5560,32 +5446,27 @@
       <c r="G60" s="1">
         <v>2</v>
       </c>
-      <c r="H60" s="10">
-        <v>42962</v>
-      </c>
+      <c r="H60" s="9"/>
       <c r="I60" s="1">
         <v>1000</v>
       </c>
       <c r="J60" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K60" s="1"/>
       <c r="P60">
         <v>6000</v>
       </c>
-      <c r="Q60" s="10">
-        <v>42962</v>
-      </c>
-      <c r="S60" s="6">
-        <v>42962.640879629631</v>
-      </c>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="6"/>
       <c r="T60" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5593,7 +5474,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -5601,32 +5482,27 @@
       <c r="G61" s="1">
         <v>2</v>
       </c>
-      <c r="H61" s="10">
-        <v>42963</v>
-      </c>
+      <c r="H61" s="9"/>
       <c r="I61" s="1">
         <v>1000</v>
       </c>
       <c r="J61" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K61" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K61" s="1"/>
       <c r="P61">
         <v>5000</v>
       </c>
-      <c r="Q61" s="10">
-        <v>42963</v>
-      </c>
-      <c r="S61" s="6">
-        <v>42963.640879629631</v>
-      </c>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="6"/>
       <c r="T61" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5634,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -5642,32 +5518,27 @@
       <c r="G62" s="1">
         <v>2</v>
       </c>
-      <c r="H62" s="10">
-        <v>42964</v>
-      </c>
+      <c r="H62" s="9"/>
       <c r="I62" s="1">
         <v>1000</v>
       </c>
       <c r="J62" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K62" s="1"/>
       <c r="P62">
         <v>4000</v>
       </c>
-      <c r="Q62" s="10">
-        <v>42964</v>
-      </c>
-      <c r="S62" s="6">
-        <v>42964.640879629631</v>
-      </c>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="6"/>
       <c r="T62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5675,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -5683,32 +5554,27 @@
       <c r="G63" s="1">
         <v>2</v>
       </c>
-      <c r="H63" s="10">
-        <v>42965</v>
-      </c>
+      <c r="H63" s="9"/>
       <c r="I63" s="1">
         <v>1000</v>
       </c>
       <c r="J63" s="1">
-        <v>7000</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K63" s="1"/>
       <c r="P63">
         <v>3000</v>
       </c>
-      <c r="Q63" s="10">
-        <v>42965</v>
-      </c>
-      <c r="S63" s="6">
-        <v>42965.640879629631</v>
-      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="6"/>
       <c r="T63" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5716,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -5724,32 +5590,27 @@
       <c r="G64" s="1">
         <v>2</v>
       </c>
-      <c r="H64" s="10">
-        <v>42966</v>
-      </c>
+      <c r="H64" s="9"/>
       <c r="I64" s="1">
         <v>1000</v>
       </c>
       <c r="J64" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K64" s="1"/>
       <c r="P64">
         <v>2000</v>
       </c>
-      <c r="Q64" s="10">
-        <v>42966</v>
-      </c>
-      <c r="S64" s="6">
-        <v>42966.640879629631</v>
-      </c>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="6"/>
       <c r="T64" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5757,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -5765,32 +5626,27 @@
       <c r="G65" s="1">
         <v>2</v>
       </c>
-      <c r="H65" s="10">
-        <v>42967</v>
-      </c>
+      <c r="H65" s="9"/>
       <c r="I65" s="1">
         <v>1000</v>
       </c>
       <c r="J65" s="1">
-        <v>9000</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K65" s="1"/>
       <c r="P65">
         <v>1000</v>
       </c>
-      <c r="Q65" s="10">
-        <v>42967</v>
-      </c>
-      <c r="S65" s="6">
-        <v>42967.640879629631</v>
-      </c>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="6"/>
       <c r="T65" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="13" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5798,7 +5654,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -5806,139 +5662,146 @@
       <c r="G66" s="1">
         <v>2</v>
       </c>
-      <c r="H66" s="10">
-        <v>42968</v>
-      </c>
+      <c r="H66" s="9"/>
       <c r="I66" s="1">
         <v>1000</v>
       </c>
       <c r="J66" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K66" s="1">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="K66" s="1"/>
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" s="10">
-        <v>42968</v>
-      </c>
-      <c r="S66" s="6">
-        <v>42968.640879629631</v>
-      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="6"/>
       <c r="T66" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="E67" s="1"/>
       <c r="I67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="I68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="5:5">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="5:5">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="5:5">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="5:5">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="5:5">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="5:5">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="5:5">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="5:5">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="5:5">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="5:5">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="5:5">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="5:5">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="5:5">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="5:5">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="5:5">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="5:5">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="5:5">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="5:5">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{2E3BB25C-D982-426F-9D86-F292F8A8CC1C}" hiddenColumns="1">
+      <selection activeCell="J58" sqref="J58:J66"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{E2746299-081B-4677-8B1A-4277B479873B}" topLeftCell="K1">
+      <selection activeCell="Q4" sqref="Q4:Q66"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
